--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="21000" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Pessoa</t>
   </si>
@@ -28,16 +28,16 @@
     <t>Diego</t>
   </si>
   <si>
-    <t>+5535991556581</t>
-  </si>
-  <si>
-    <t>Coe, ta doidao?</t>
-  </si>
-  <si>
-    <t>Elaine</t>
-  </si>
-  <si>
-    <t>5512997725287</t>
+    <t>5535991556581</t>
+  </si>
+  <si>
+    <t>Fala comigo inhonho</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>5512981518369</t>
   </si>
   <si>
     <t>E aí, tudo bem?</t>
@@ -46,10 +46,16 @@
     <t>Clarinha</t>
   </si>
   <si>
-    <t>+5535991584509</t>
+    <t>5535991584509</t>
   </si>
   <si>
     <t>Oiiii tudo bem?</t>
+  </si>
+  <si>
+    <t>Vania</t>
+  </si>
+  <si>
+    <t>551298137-6084</t>
   </si>
 </sst>
 </file>
@@ -57,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,14 +85,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,54 +153,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,70 +198,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +237,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,37 +381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,127 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +428,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,32 +479,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,179 +514,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,15 +998,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="25.5272727272727" customWidth="1"/>
+    <col min="2" max="2" width="25.5238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1045,6 +1051,17 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9045"/>
+    <workbookView windowWidth="18600" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>5535991556581</t>
   </si>
   <si>
-    <t>Fala comigo inhonho</t>
+    <t>sgkjfskdjhfkjsdfkjsdh</t>
   </si>
   <si>
     <t>Bruna</t>
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,6 +84,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -91,22 +128,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -123,14 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,91 +223,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,67 +237,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,114 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,15 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,34 +449,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +458,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +480,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -528,151 +508,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,12 +1001,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="25.5238095238095" customWidth="1"/>
+    <col min="2" max="2" width="25.5272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -37,7 +37,7 @@
     <t>Bruna</t>
   </si>
   <si>
-    <t>5512981518369</t>
+    <t>5512996572472</t>
   </si>
   <si>
     <t>E aí, tudo bem?</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,6 +77,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,60 +128,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,52 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -205,22 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -237,13 +237,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,151 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,69 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,8 +449,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,151 +489,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="21000" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Pessoa</t>
   </si>
@@ -22,40 +22,43 @@
     <t>Número</t>
   </si>
   <si>
+    <t>Atendimento</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>5535991556581</t>
-  </si>
-  <si>
-    <t>sgkjfskdjhfkjsdfkjsdh</t>
-  </si>
-  <si>
-    <t>Bruna</t>
-  </si>
-  <si>
-    <t>5512996572472</t>
-  </si>
-  <si>
-    <t>E aí, tudo bem?</t>
-  </si>
-  <si>
-    <t>Clarinha</t>
-  </si>
-  <si>
-    <t>5535991584509</t>
-  </si>
-  <si>
-    <t>Oiiii tudo bem?</t>
-  </si>
-  <si>
-    <t>Vania</t>
-  </si>
-  <si>
-    <t>551298137-6084</t>
+    <t>ANTONIO CARLOS VIEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>REPARO</t>
+  </si>
+  <si>
+    <t>AMANHÃ</t>
+  </si>
+  <si>
+    <t>RAIMUNDA AMORIM CURI DA SILVA</t>
+  </si>
+  <si>
+    <t>LUANA GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>ANDRE EUFRASIO DA SILVA</t>
+  </si>
+  <si>
+    <t>MUDANÇA DE ENDEREÇO</t>
+  </si>
+  <si>
+    <t>DELVANI SOARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ATIVAÇÃO</t>
+  </si>
+  <si>
+    <t>DIOGO BATISTA LOPES DE CARVALHO</t>
   </si>
 </sst>
 </file>
@@ -63,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -77,50 +80,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,7 +95,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,69 +211,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,85 +240,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,97 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,35 +434,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,13 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,176 +492,200 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,18 +1005,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="25.5272727272727" customWidth="1"/>
+    <col min="1" max="1" width="12.8571428571429"/>
+    <col min="2" max="2" width="25.5238095238095" customWidth="1"/>
+    <col min="5" max="5" width="69.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,50 +1028,172 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+    <row r="2" ht="62" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5512981349255</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C2&amp;"*, no cadastro de "&amp;A2&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *REPARO*, no cadastro de ANTONIO CARLOS VIEIRA DA SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" ht="135" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>553591556581</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E13" si="0">"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C3&amp;"*, no cadastro de "&amp;A3&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *REPARO*, no cadastro de RAIMUNDA AMORIM CURI DA SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" ht="120" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>5512981051014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *REPARO*, no cadastro de LUANA GOMES DA SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
+      </c>
+    </row>
+    <row r="5" ht="135" spans="1:5">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2">
+        <v>5512997725287</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de ANDRE EUFRASIO DA SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" ht="120" spans="1:5">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2">
+        <v>5512996572472</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de DELVANI SOARES DE OLIVEIRA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
+      </c>
+    </row>
+    <row r="7" ht="120" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5512981518369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *REPARO*, no cadastro de DIOGO BATISTA LOPES DE CARVALHO, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>

--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9045"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Pessoa</t>
   </si>
@@ -28,37 +28,61 @@
     <t>Periodo</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>ANTONIO CARLOS VIEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>REPARO</t>
-  </si>
-  <si>
-    <t>AMANHÃ</t>
-  </si>
-  <si>
-    <t>RAIMUNDA AMORIM CURI DA SILVA</t>
-  </si>
-  <si>
-    <t>LUANA GOMES DA SILVA</t>
-  </si>
-  <si>
-    <t>ANDRE EUFRASIO DA SILVA</t>
-  </si>
-  <si>
-    <t>MUDANÇA DE ENDEREÇO</t>
-  </si>
-  <si>
-    <t>DELVANI SOARES DE OLIVEIRA</t>
+    <t>CLIDIELSON SABINO DE OLIVEIRA</t>
   </si>
   <si>
     <t>ATIVAÇÃO</t>
   </si>
   <si>
-    <t>DIOGO BATISTA LOPES DE CARVALHO</t>
+    <t>TARDE</t>
+  </si>
+  <si>
+    <t>08/08</t>
+  </si>
+  <si>
+    <t>NOELDSON DE JESUS SANTOS</t>
+  </si>
+  <si>
+    <t>FELIPE AUGUSTO VIEIRA SILVA</t>
+  </si>
+  <si>
+    <t>LUCIMAR DE JESUS SILVA</t>
+  </si>
+  <si>
+    <t>ALAN DOUGLAS DE LIMA RIBEIRO</t>
+  </si>
+  <si>
+    <t>DOMINGOS RIZZO</t>
+  </si>
+  <si>
+    <t>GISLAYNE RODRIGUES MACEDO</t>
+  </si>
+  <si>
+    <t>VANESSA DE SOUZA BITTENCOURT</t>
+  </si>
+  <si>
+    <t>ADAILSON DOS SANTOS DINIS</t>
+  </si>
+  <si>
+    <t>MANHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUMBERTO FERREIRA ZUCARELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS HENRIQUE SANTOS GOMES </t>
+  </si>
+  <si>
+    <t>PEDRO LUIZ ROCHA LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALINE CRISTINA DA SILVA </t>
   </si>
 </sst>
 </file>
@@ -66,30 +90,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -108,8 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +149,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -131,16 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,21 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -178,6 +197,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -193,11 +220,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,16 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +265,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,19 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,114 +439,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,36 +451,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -434,11 +465,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,21 +560,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,158 +609,184 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -748,7 +850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -764,7 +866,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -776,7 +878,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -793,9 +895,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -828,9 +930,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1005,198 +1107,587 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429"/>
-    <col min="2" max="2" width="25.5238095238095" customWidth="1"/>
-    <col min="5" max="5" width="69.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="15.71" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.86" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.71" style="3" customWidth="1"/>
+    <col min="6" max="6" width="65.71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" ht="14.5" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="62" customHeight="1" spans="1:5">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="165" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>5512981349255</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>"Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C2&amp;"*, no cadastro de "&amp;A2&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E2&amp;"*, no periodo da "&amp;D2&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de CLIDIELSON SABINO DE OLIVEIRA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="3" ht="130" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5512992481401</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="str">
         <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C2&amp;"*, no cadastro de "&amp;A2&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?"</f>
+Meu contato é referente a solicitação de *"&amp;C3&amp;"*, no cadastro de "&amp;A3&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E3&amp;"*, no periodo da"&amp;D3&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *REPARO*, no cadastro de ANTONIO CARLOS VIEIRA DA SILVA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
-      </c>
-    </row>
-    <row r="3" ht="135" spans="1:5">
-      <c r="A3" s="1" t="s">
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de NOELDSON DE JESUS SANTOS, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="4" ht="130" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>551298816219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>553591556581</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C4&amp;"*, no cadastro de "&amp;A4&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E4&amp;"*, no periodo da"&amp;D4&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de FELIPE AUGUSTO VIEIRA SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="5" ht="130" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5513974020642</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E13" si="0">"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C3&amp;"*, no cadastro de "&amp;A3&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?"</f>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C5&amp;"*, no cadastro de "&amp;A5&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E5&amp;"*, no periodo da"&amp;D5&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *REPARO*, no cadastro de RAIMUNDA AMORIM CURI DA SILVA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
-      </c>
-    </row>
-    <row r="4" ht="120" spans="1:5">
-      <c r="A4" s="1" t="s">
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de LUCIMAR DE JESUS SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="6" ht="130" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5512982108809</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>5512981051014</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C6&amp;"*, no cadastro de "&amp;A6&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E6&amp;"*, no periodo da"&amp;D6&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de ALAN DOUGLAS DE LIMA RIBEIRO, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="7" ht="130" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5512982204778</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C7&amp;"*, no cadastro de "&amp;A7&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E7&amp;"*, no periodo da"&amp;D7&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *REPARO*, no cadastro de LUANA GOMES DA SILVA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
-      </c>
-    </row>
-    <row r="5" ht="135" spans="1:5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5512997725287</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de DOMINGOS RIZZO, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="8" ht="143" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5512997886117</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C8&amp;"*, no cadastro de "&amp;A8&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E8&amp;"*, no periodo da"&amp;D8&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de ANDRE EUFRASIO DA SILVA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
-      </c>
-    </row>
-    <row r="6" ht="120" spans="1:5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5512996572472</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de GISLAYNE RODRIGUES MACEDO, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="9" ht="143" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5512992272594</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C9&amp;"*, no cadastro de "&amp;A9&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E9&amp;"*, no periodo da"&amp;D9&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de DELVANI SOARES DE OLIVEIRA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
-      </c>
-    </row>
-    <row r="7" ht="120" spans="1:5">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de VANESSA DE SOUZA BITTENCOURT, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="10" ht="130" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5512992272594</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C10&amp;"*, no cadastro de "&amp;A10&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E10&amp;"*, no periodo da"&amp;D10&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de ADAILSON DOS SANTOS DINIS, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daMANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="11" ht="143" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5512991694178</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C11&amp;"*, no cadastro de "&amp;A11&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E11&amp;"*, no periodo da"&amp;D11&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de  HUMBERTO FERREIRA ZUCARELI, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="12" ht="130" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5512999999999</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C12&amp;"*, no cadastro de "&amp;A12&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E12&amp;"*, no periodo da"&amp;D12&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de LUCAS HENRIQUE SANTOS GOMES , gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="13" ht="130" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5512996217298</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C13&amp;"*, no cadastro de "&amp;A13&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E13&amp;"*, no periodo da"&amp;D13&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
+        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de PEDRO LUIZ ROCHA LOPEZ, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daMANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="14" ht="130" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
         <v>5512981518369</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9" t="str">
+        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *"&amp;C14&amp;"*, no cadastro de "&amp;A14&amp;", gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *"&amp;E14&amp;"*, no periodo da"&amp;D14&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *REPARO*, no cadastro de DIOGO BATISTA LOPES DE CARVALHO, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *@value3*, podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="3"/>
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de ALINE CRISTINA DA SILVA , gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="24000" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>Pessoa</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>CLIDIELSON SABINO DE OLIVEIRA</t>
+    <t>SABRINA JESUS DE LIMA</t>
   </si>
   <si>
     <t>ATIVAÇÃO</t>
@@ -43,46 +43,64 @@
     <t>TARDE</t>
   </si>
   <si>
-    <t>08/08</t>
-  </si>
-  <si>
-    <t>NOELDSON DE JESUS SANTOS</t>
-  </si>
-  <si>
-    <t>FELIPE AUGUSTO VIEIRA SILVA</t>
-  </si>
-  <si>
-    <t>LUCIMAR DE JESUS SILVA</t>
-  </si>
-  <si>
-    <t>ALAN DOUGLAS DE LIMA RIBEIRO</t>
-  </si>
-  <si>
-    <t>DOMINGOS RIZZO</t>
-  </si>
-  <si>
-    <t>GISLAYNE RODRIGUES MACEDO</t>
-  </si>
-  <si>
-    <t>VANESSA DE SOUZA BITTENCOURT</t>
-  </si>
-  <si>
-    <t>ADAILSON DOS SANTOS DINIS</t>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO ALVES NASCIMENTO</t>
+  </si>
+  <si>
+    <t>JOSÉ CLOVIS DE SOUZA SANTOS</t>
   </si>
   <si>
     <t>MANHA</t>
   </si>
   <si>
-    <t xml:space="preserve"> HUMBERTO FERREIRA ZUCARELI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCAS HENRIQUE SANTOS GOMES </t>
-  </si>
-  <si>
-    <t>PEDRO LUIZ ROCHA LOPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALINE CRISTINA DA SILVA </t>
+    <t>NALIA MARIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>FLAVIA MOREIRA SGAVIOLI</t>
+  </si>
+  <si>
+    <t>PAULO KAZUKI NACAMURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JASMIM DE DARIO E BARTOLO </t>
+  </si>
+  <si>
+    <t>NATHALIA MENEGON RAMOS</t>
+  </si>
+  <si>
+    <t>MARCELO RODRIGUES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>EVERALDO MARCOS GONCALVES</t>
+  </si>
+  <si>
+    <t>SIRLENE SILVA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>JOAO JAILSON DE LUCENA</t>
+  </si>
+  <si>
+    <t>DAYSE DA SILVA ALMEIDA FEITOSA</t>
+  </si>
+  <si>
+    <t>MUDANÇA DE ENDEREÇO</t>
+  </si>
+  <si>
+    <t>RIZIA FARIAS DE SOUZA LIMA</t>
+  </si>
+  <si>
+    <t>PATRICIA HELENA MARTON ESCRITÓRIO</t>
+  </si>
+  <si>
+    <t>BARBARA STEFANI BASTOS CENCIARELLI</t>
+  </si>
+  <si>
+    <t>LINDALVA DA SILVA DIB</t>
+  </si>
+  <si>
+    <t>DANILO BORGES DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -90,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -112,6 +130,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,6 +153,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -127,7 +198,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,114 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +289,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,175 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,8 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +548,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,172 +625,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +802,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1109,21 +1133,21 @@
   <sheetPr/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.71" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.86" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.71" style="3" customWidth="1"/>
-    <col min="6" max="6" width="65.71" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" style="3" customWidth="1"/>
+    <col min="6" max="6" width="65.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:6">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1144,547 +1168,619 @@
       </c>
     </row>
     <row r="2" ht="165" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>5512981349255</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10">
+        <v>5512987059526</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="F2" s="11" t="str">
         <f>"Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
 Meu contato é referente a solicitação de *"&amp;C2&amp;"*, no cadastro de "&amp;A2&amp;", gostaríamos de confirmar o seu agendamento.
 Sua visita está na agenda de *"&amp;E2&amp;"*, no periodo da "&amp;D2&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor"</f>
         <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de CLIDIELSON SABINO DE OLIVEIRA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de SABRINA JESUS DE LIMA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="3" ht="130" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="127.5" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
-        <v>5512992481401</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="10">
+        <v>5512996829092</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+      <c r="F3" s="11" t="str">
+        <f t="shared" ref="F3:F19" si="0">"Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
 Meu contato é referente a solicitação de *"&amp;C3&amp;"*, no cadastro de "&amp;A3&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E3&amp;"*, no periodo da"&amp;D3&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Sua visita está na agenda de *"&amp;E3&amp;"*, no periodo da "&amp;D3&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de NOELDSON DE JESUS SANTOS, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de PAULO ROBERTO ALVES NASCIMENTO, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="4" ht="130" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="127.5" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>551298816219</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="10">
+        <v>5511974825696</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C4&amp;"*, no cadastro de "&amp;A4&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E4&amp;"*, no periodo da"&amp;D4&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de FELIPE AUGUSTO VIEIRA SILVA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de JOSÉ CLOVIS DE SOUZA SANTOS, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="5" ht="130" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="127.5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5512981919511</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5513974020642</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C5&amp;"*, no cadastro de "&amp;A5&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E5&amp;"*, no periodo da"&amp;D5&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de LUCIMAR DE JESUS SILVA, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de NALIA MARIA DOS SANTOS, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="6" ht="130" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5512982108809</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="127.5" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5511984047884</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C6&amp;"*, no cadastro de "&amp;A6&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E6&amp;"*, no periodo da"&amp;D6&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de ALAN DOUGLAS DE LIMA RIBEIRO, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de FLAVIA MOREIRA SGAVIOLI, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="7" ht="130" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5512982204778</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" ht="127.5" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5511998950847</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C7&amp;"*, no cadastro de "&amp;A7&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E7&amp;"*, no periodo da"&amp;D7&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de DOMINGOS RIZZO, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de PAULO KAZUKI NACAMURA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="8" ht="143" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5512997886117</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" ht="127.5" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5512997117919</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C8&amp;"*, no cadastro de "&amp;A8&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E8&amp;"*, no periodo da"&amp;D8&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de GISLAYNE RODRIGUES MACEDO, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de  JASMIM DE DARIO E BARTOLO , gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="9" ht="143" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5512992272594</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" ht="127.5" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5534991644861</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C9&amp;"*, no cadastro de "&amp;A9&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E9&amp;"*, no periodo da"&amp;D9&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de VANESSA DE SOUZA BITTENCOURT, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de NATHALIA MENEGON RAMOS, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="10" ht="130" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5512992272594</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="10" ht="127.5" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5512981675729</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C10&amp;"*, no cadastro de "&amp;A10&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E10&amp;"*, no periodo da"&amp;D10&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de ADAILSON DOS SANTOS DINIS, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daMANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de MARCELO RODRIGUES DOS SANTOS, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="11" ht="143" spans="1:6">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="127.5" spans="1:6">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2">
-        <v>5512991694178</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="10">
+        <v>5511968673415</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C11&amp;"*, no cadastro de "&amp;A11&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E11&amp;"*, no periodo da"&amp;D11&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de  HUMBERTO FERREIRA ZUCARELI, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de EVERALDO MARCOS GONCALVES, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="12" ht="130" spans="1:6">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="127.5" spans="1:6">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
-        <v>5512999999999</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="10">
+        <v>5512991237861</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C12&amp;"*, no cadastro de "&amp;A12&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E12&amp;"*, no periodo da"&amp;D12&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de LUCAS HENRIQUE SANTOS GOMES , gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de SIRLENE SILVA OLIVEIRA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="13" ht="130" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="127.5" spans="1:6">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
-        <v>5512996217298</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="10">
+        <v>5512988158379</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C13&amp;"*, no cadastro de "&amp;A13&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E13&amp;"*, no periodo da"&amp;D13&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de PEDRO LUIZ ROCHA LOPEZ, gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daMANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de JOAO JAILSON DE LUCENA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="14" ht="130" spans="1:6">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="140.25" spans="1:6">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
-        <v>5512981518369</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="10">
+        <v>5512981358500</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="9" t="str">
-        <f>"Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *"&amp;C14&amp;"*, no cadastro de "&amp;A14&amp;", gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *"&amp;E14&amp;"*, no periodo da"&amp;D14&amp;" podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
-Caso sim confirme seu endereço por favor"</f>
-        <v>Olá! Aqui é a Ana, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
-Meu contato é referente a solicitação de *ATIVAÇÃO*, no cadastro de ALINE CRISTINA DA SILVA , gostaríamos de confirmar o seu agendamento.
-Sua visita está na agenda de *08/08*, no periodo daTARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de DAYSE DA SILVA ALMEIDA FEITOSA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
 Caso sim confirme seu endereço por favor</v>
       </c>
     </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="9"/>
+    <row r="15" ht="127.5" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5512996334337</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de RIZIA FARIAS DE SOUZA LIMA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="16" ht="140.25" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10">
+        <v>5512996596174</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de PATRICIA HELENA MARTON ESCRITÓRIO, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="17" ht="140.25" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10">
+        <v>5512997463883</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de BARBARA STEFANI BASTOS CENCIARELLI, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="18" ht="127.5" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="10">
+        <v>5512981262512</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de LINDALVA DA SILVA DIB, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da TARDE podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
+    </row>
+    <row r="19" ht="127.5" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5512992156232</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Olá! Aqui é a Izabel, do GIGA+FIBRA, setor de *AGENDAMENTOS.*
+Meu contato é referente a solicitação de *MUDANÇA DE ENDEREÇO*, no cadastro de DANILO BORGES DA SILVA, gostaríamos de confirmar o seu agendamento.
+Sua visita está na agenda de *09/08/2022*, no periodo da MANHA podemos confirmar que terá alguém *maior de idade* no local para acompanhar o técnico e assinar o atendimento?
+Caso sim confirme seu endereço por favor</v>
+      </c>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="9"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="9"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="9"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="9"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="9"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="9"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="9"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="9"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="9"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="9"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="9"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="9"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="9"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="9"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="9"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="9"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="9"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="9"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="9"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="9"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="9"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="9"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="9"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="9"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="9"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="9"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="9"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="9"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="9"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="9"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="9"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="9"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="9"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="9"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="6:6">
-      <c r="F54" s="9"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="6:6">
-      <c r="F55" s="9"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="6:6">
-      <c r="F56" s="9"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="6:6">
-      <c r="F57" s="9"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="6:6">
-      <c r="F58" s="9"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="6:6">
-      <c r="F59" s="9"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="6:6">
-      <c r="F60" s="9"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="6:6">
-      <c r="F61" s="9"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="6:6">
-      <c r="F62" s="9"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="6:6">
-      <c r="F63" s="9"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="6:6">
-      <c r="F64" s="9"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="6:6">
-      <c r="F65" s="9"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="6:6">
-      <c r="F66" s="9"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="6:6">
-      <c r="F67" s="9"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="6:6">
-      <c r="F68" s="9"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="9"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="6:6">
-      <c r="F70" s="9"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="9"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="9"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="9"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="6:6">
-      <c r="F74" s="9"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="9"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="6:6">
-      <c r="F76" s="9"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="6:6">
-      <c r="F77" s="9"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="6:6">
-      <c r="F78" s="9"/>
+      <c r="F78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
